--- a/public/winter_jobs_tmpl.xlsx
+++ b/public/winter_jobs_tmpl.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Žiemos darbų ataskaita</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t xml:space="preserve">Atliekamas darbas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darbo šifras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matas</t>
   </si>
   <si>
     <t xml:space="preserve">Kelio Nr.</t>
@@ -229,10 +235,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -243,11 +249,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="10" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="1" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="12" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -264,6 +270,8 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="42.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -281,6 +289,8 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="24.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -298,6 +308,8 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
@@ -336,15 +348,21 @@
       <c r="L4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>14</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/public/winter_jobs_tmpl.xlsx
+++ b/public/winter_jobs_tmpl.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Žiemos darbų ataskaita</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tirpalo kiekis (m3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kvadratūra (m2)</t>
   </si>
 </sst>
 </file>
@@ -80,7 +83,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -101,13 +104,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times new Roman"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -189,7 +185,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -199,22 +195,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -235,10 +227,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N11" activeCellId="0" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -252,117 +244,123 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="1" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="12" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="12" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
+      <c r="M1" s="0"/>
+      <c r="N1" s="0"/>
+      <c r="O1" s="0"/>
+      <c r="P1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="42.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="24.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="5" t="s">
         <v>16</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:P3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
